--- a/학습자료/단답형/한국사.xlsx
+++ b/학습자료/단답형/한국사.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1097"/>
+  <dimension ref="A1:D1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2654,7 +2654,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166">
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190">
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235">
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5454,7 +5454,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -5874,7 +5874,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
@@ -6294,7 +6294,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294">
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -6574,7 +6574,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -6880,7 +6880,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -7140,7 +7140,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -7200,7 +7200,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -7580,7 +7580,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -7680,7 +7680,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -7700,7 +7700,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -7720,7 +7720,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365">
@@ -7800,7 +7800,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -7880,7 +7880,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -8240,7 +8240,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -8681,7 +8681,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423">
@@ -8981,7 +8981,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -9057,11 +9057,11 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>인물 : 외국인</t>
+          <t>인물 : 일본인</t>
         </is>
       </c>
       <c r="D431" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>인물 : 외국인</t>
+          <t>인물 : 일본인</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>인물 : 외국인</t>
+          <t>인물 : 일본인</t>
         </is>
       </c>
       <c r="D433" t="n">
@@ -9117,7 +9117,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>인물 : 외국인</t>
+          <t>인물 : 일본인</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -9341,7 +9341,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D446" t="n">
@@ -9377,11 +9377,11 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D447" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -9537,11 +9537,11 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
@@ -9557,7 +9557,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D456" t="n">
@@ -9617,11 +9617,11 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D459" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -9697,7 +9697,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -9717,11 +9717,11 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -9737,11 +9737,11 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D465" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D466" t="n">
@@ -9777,11 +9777,11 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468">
@@ -9817,11 +9817,11 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D469" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -9901,7 +9901,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
@@ -9917,7 +9917,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D475" t="n">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D477" t="n">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D479" t="n">
@@ -10037,11 +10037,11 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D480" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D481" t="n">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D482" t="n">
@@ -10097,11 +10097,11 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D483" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -10137,11 +10137,11 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D486" t="n">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D488" t="n">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -10257,11 +10257,11 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D491" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -10297,11 +10297,11 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D493" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D494" t="n">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D495" t="n">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D496" t="n">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>조약</t>
+          <t>조약 : 일본</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500">
@@ -10561,7 +10561,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
@@ -10901,7 +10901,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -11201,7 +11201,7 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -11281,7 +11281,7 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -11441,7 +11441,7 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -11541,7 +11541,7 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -11581,7 +11581,7 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -11601,7 +11601,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -11741,7 +11741,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -11761,7 +11761,7 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -12041,7 +12041,7 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -12481,7 +12481,7 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="604">
@@ -12541,7 +12541,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="606">
@@ -12641,7 +12641,7 @@
         </is>
       </c>
       <c r="D610" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -12661,7 +12661,7 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -12701,7 +12701,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="620">
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="629">
@@ -13382,7 +13382,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -13522,7 +13522,7 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -13722,7 +13722,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="665">
@@ -13782,7 +13782,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="668">
@@ -14042,7 +14042,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -14062,7 +14062,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682">
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -14242,7 +14242,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
@@ -14602,7 +14602,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -14642,7 +14642,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -14822,7 +14822,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -15002,7 +15002,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -15042,7 +15042,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -15102,7 +15102,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
@@ -15202,7 +15202,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -15222,7 +15222,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -15842,7 +15842,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
@@ -15862,7 +15862,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772">
@@ -15902,7 +15902,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774">
@@ -16082,7 +16082,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -16302,7 +16302,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
@@ -16662,7 +16662,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
@@ -16682,7 +16682,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
@@ -16882,7 +16882,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823">
@@ -17222,7 +17222,7 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840">
@@ -17322,7 +17322,7 @@
         </is>
       </c>
       <c r="D844" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845">
@@ -17462,7 +17462,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852">
@@ -17642,7 +17642,7 @@
         </is>
       </c>
       <c r="D860" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="861">
@@ -17742,7 +17742,7 @@
         </is>
       </c>
       <c r="D865" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866">
@@ -17922,7 +17922,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875">
@@ -17942,7 +17942,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876">
@@ -18142,7 +18142,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="886">
@@ -18502,7 +18502,7 @@
         </is>
       </c>
       <c r="D903" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904">
@@ -18522,7 +18522,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905">
@@ -18722,7 +18722,7 @@
         </is>
       </c>
       <c r="D914" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="915">
@@ -18762,7 +18762,7 @@
         </is>
       </c>
       <c r="D916" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917">
@@ -18782,7 +18782,7 @@
         </is>
       </c>
       <c r="D917" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918">
@@ -18942,7 +18942,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="926">
@@ -19322,7 +19322,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="945">
@@ -19362,7 +19362,7 @@
         </is>
       </c>
       <c r="D946" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947">
@@ -19522,7 +19522,7 @@
         </is>
       </c>
       <c r="D954" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955">
@@ -19842,7 +19842,7 @@
         </is>
       </c>
       <c r="D970" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="D978" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="979">
@@ -20102,7 +20102,7 @@
         </is>
       </c>
       <c r="D983" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984">
@@ -20222,7 +20222,7 @@
         </is>
       </c>
       <c r="D989" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990">
@@ -20282,7 +20282,7 @@
         </is>
       </c>
       <c r="D992" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993">
@@ -20462,7 +20462,7 @@
         </is>
       </c>
       <c r="D1001" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -20482,7 +20482,7 @@
         </is>
       </c>
       <c r="D1002" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003">
@@ -20582,7 +20582,7 @@
         </is>
       </c>
       <c r="D1007" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="D1008" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009">
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="D1019" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020">
@@ -20847,7 +20847,7 @@
         </is>
       </c>
       <c r="D1020" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1021">
@@ -20930,7 +20930,7 @@
         </is>
       </c>
       <c r="D1024" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025">
@@ -20950,7 +20950,7 @@
         </is>
       </c>
       <c r="D1025" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1026">
@@ -21010,7 +21010,7 @@
         </is>
       </c>
       <c r="D1028" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1029">
@@ -21190,7 +21190,7 @@
         </is>
       </c>
       <c r="D1037" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038">
@@ -21290,7 +21290,7 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043">
@@ -21310,7 +21310,7 @@
         </is>
       </c>
       <c r="D1043" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044">
@@ -21410,7 +21410,7 @@
         </is>
       </c>
       <c r="D1048" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049">
@@ -21470,7 +21470,7 @@
         </is>
       </c>
       <c r="D1051" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052">
@@ -21490,7 +21490,7 @@
         </is>
       </c>
       <c r="D1052" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053">
@@ -21510,7 +21510,7 @@
         </is>
       </c>
       <c r="D1053" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054">
@@ -21950,7 +21950,7 @@
         </is>
       </c>
       <c r="D1075" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1076">
@@ -22350,7 +22350,7 @@
         </is>
       </c>
       <c r="D1095" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1096">
@@ -22370,7 +22370,7 @@
         </is>
       </c>
       <c r="D1096" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1097">
@@ -22390,6 +22390,2086 @@
         </is>
       </c>
       <c r="D1097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>고구려 진대법 도입</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>고국천왕 | 194년</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>왕대사 : 고구려</t>
+        </is>
+      </c>
+      <c r="D1098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>고구려의 위나라 서안평 침공</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>동천왕 | 242년</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>왕대사 : 고구려</t>
+        </is>
+      </c>
+      <c r="D1099" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>위나라 관구검의 고구려 침입</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>동천왕 | 242년</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>왕대사 : 고구려</t>
+        </is>
+      </c>
+      <c r="D1100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>백제 관등제 정비 및 공복제 도입</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>고이왕 | 260년</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>왕대사 : 백제</t>
+        </is>
+      </c>
+      <c r="D1101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>백제 6좌평 설치</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>고이왕 | 260년</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>왕대사 : 백제</t>
+        </is>
+      </c>
+      <c r="D1102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>백제 율령 반포</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>고이왕 | 262년</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>왕대사 : 백제</t>
+        </is>
+      </c>
+      <c r="D1103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>고구려 낙랑군 대방군 축출</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>미천왕 | 314년</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>왕대사 : 고구려</t>
+        </is>
+      </c>
+      <c r="D1104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>고구려 고국원왕 전사</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>371년 | 근초고왕</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>고구려 전진과 수교</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>371년 | 소수림왕</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>고구려 태학 설립</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>372년 | 소수림왕</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>전진의 순도 고구려에 불교 전래</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>372년 | 소수림왕</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>백제 동진과 외교 관계 수립</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>근초고왕 | 372년</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>왕대사 : 백제</t>
+        </is>
+      </c>
+      <c r="D1109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>고구려 율령 반포</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>373년 | 소수림왕</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1110" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>고흥 역사서 서기 편찬</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>375년 | 근초고왕</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>동진의 마라난타 백제에 불교 전래</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>384년 | 침류왕</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>백제 아신왕 고구려에 항복</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>396년 | 광개토대왕</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>전기 가야연맹 몰락</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>400년 | 광개토대왕</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>고구려 동예 통합</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>광개토대왕 | 410년</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>왕대사 : 고구려</t>
+        </is>
+      </c>
+      <c r="D1115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>고구려 광개토대왕릉비 건립</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>414년 | 장수왕</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>고구려 평양성 천도</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>427년 | 장수왕</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>나제 동맹 체결</t>
+        </is>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>433년 | 눌지왕</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>고구려의 묵호자 신라에 불교 전래</t>
+        </is>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>457년 | 눌지왕</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>백제 수도 위례성 함락 개로왕 전사</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>475년 | 장수왕</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>백제 웅진 천도</t>
+        </is>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>문주왕 | 475년</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>왕대사 : 백제</t>
+        </is>
+      </c>
+      <c r="D1121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>신라 우역 설치</t>
+        </is>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>소지왕 | 487년</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>백제 신라 결혼 동맹 체결</t>
+        </is>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>동성왕 | 493년</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>왕대사 : 백제</t>
+        </is>
+      </c>
+      <c r="D1123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>신라 포항 중성리 신라비 건립</t>
+        </is>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>지증왕 : 501년</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>신라 비석</t>
+        </is>
+      </c>
+      <c r="D1124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>신라 사로국을 신라로 개칭</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>503년 | 지증왕</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>신라 왕 칭호 사용</t>
+        </is>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>503년 | 지증왕</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>신라 포항 냉수리 신라비 건립</t>
+        </is>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>지증왕 : 503년</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>신라 비석</t>
+        </is>
+      </c>
+      <c r="D1127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>신라 병부 설치</t>
+        </is>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>법흥왕 | 517년</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>신라의 4색 공복 제정</t>
+        </is>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>520년 | 법흥왕</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>신라 율령 반포</t>
+        </is>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>520년 | 법흥왕</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>신라 골품제도 정비</t>
+        </is>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>법흥왕 | 520년</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>대가야 신라의 결혼 동맹</t>
+        </is>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>법흥왕 | 522년</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>신라 울진 봉평 신라비 건립</t>
+        </is>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>법흥왕 : 524년</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>신라 비석</t>
+        </is>
+      </c>
+      <c r="D1133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>백제 무령왕릉 축조</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>성왕 | 525년</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>왕대사 : 백제</t>
+        </is>
+      </c>
+      <c r="D1134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>신라 불교 공인</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>527년 | 법흥왕</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>신라 상대등 설치</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>법흥왕 | 531년</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>금관가야 정복</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>법흥왕 | 532년</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>백제 사비 천도</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>성왕 | 538년</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>왕대사 : 백제</t>
+        </is>
+      </c>
+      <c r="D1138" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>신라 거칠부 국사 편찬</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>545년 | 진흥왕</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>백제 신라의 한강 회복</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>551년 | 성왕</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>신라 단양 적성비 건립</t>
+        </is>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>진흥왕 : 551년</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>신라 비석</t>
+        </is>
+      </c>
+      <c r="D1141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>백제 노리사치계 일본에 불교 전파</t>
+        </is>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>성왕 | 551년</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>왕대사 : 백제</t>
+        </is>
+      </c>
+      <c r="D1142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>백제 성왕 관산성 전투 전사</t>
+        </is>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>552년 | 성왕</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>신라 북한산 순수비 건립</t>
+        </is>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>진흥왕 : 554년</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>신라 비석</t>
+        </is>
+      </c>
+      <c r="D1144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>신라 창녕비 건립</t>
+        </is>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>진흥왕 : 555년</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>신라 비석</t>
+        </is>
+      </c>
+      <c r="D1145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>대가야 정복</t>
+        </is>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>561년 | 진흥왕</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>신라 품주 설치</t>
+        </is>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>진흥왕 | 562년</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>신라 황룡사 건립</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>진흥왕 | 567년</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>신라 황초령비 건립</t>
+        </is>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>진흥왕 : 567년</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>신라 비석</t>
+        </is>
+      </c>
+      <c r="D1149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>신라 마운령비 건립</t>
+        </is>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>진흥왕 : 568년</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>신라 비석</t>
+        </is>
+      </c>
+      <c r="D1150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>고구려 혜자 일본 태자의 스승 파견</t>
+        </is>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>영양왕 | 590년</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>왕대사 : 고구려</t>
+        </is>
+      </c>
+      <c r="D1151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>고구려 이문진 신집 5권 편찬</t>
+        </is>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>영양왕 | 598년</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>왕대사 : 고구려</t>
+        </is>
+      </c>
+      <c r="D1152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>고구려 담징 일본에 종이 먹 제조법 전래</t>
+        </is>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>영양왕 | 609년</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>왕대사 : 고구려</t>
+        </is>
+      </c>
+      <c r="D1153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>수 양제의 고구려 2차 침입 및 살수대첩</t>
+        </is>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>612년 | 영양왕</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1154" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>신라 분황사 창건 및 모전석탑 건립</t>
+        </is>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>선덕여왕 | 634년</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>백제 신라의 대야성 함락</t>
+        </is>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>642년 | 의자왕</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>신라 황룡사 9층 목탑 건립</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>644년 | 선덕여왕</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>고구려 양만춘 안시성 전투 활약</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>645년 | 보장왕</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>고구려 천리장성 완성</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>647년 | 보장왕</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>신라 나당 동맹 체결</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>647년 | 진덕여왕</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>백제 멸망 당시 신라 왕</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>무열왕 | 660년</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>당의 계림도독부 설치</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>문무왕 | 663년</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>신라 취리산 회맹</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>663년 | 문무왕</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>당의 안동도호부 설치</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>668년 | 문무왕</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>신라 사비에 소부리주 설치</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>668년 | 문무왕</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>신라 안승을 보덕국왕에 임명</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>문무왕 | 673년</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>신라 당나라와 매소성 전투</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>문무왕 | 675년</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1167" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>의상 부석사 건립</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>문무왕 | 675년</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>신라 당의 안동도호부 축출</t>
+        </is>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>문무왕 | 676년</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>왕대사 : 신라</t>
+        </is>
+      </c>
+      <c r="D1169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>신라 당나라와 기벌포 전투</t>
+        </is>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>676년 | 문무왕</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>연표 : 삼국시대</t>
+        </is>
+      </c>
+      <c r="D1170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>통일신라 김흠돌 모역 사건</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>신문왕 | 681년</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>통일신라 국학 설립</t>
+        </is>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>신문왕 | 681년</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>통일신라 9주 5소경 정비</t>
+        </is>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>신문왕 | 684년</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>통일신라 관료전 지급</t>
+        </is>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>신문왕 | 685년</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>통일신라 9서당 10정 정비</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>신문왕 | 687년</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>통일신라 녹읍 폐지</t>
+        </is>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>신문왕 | 687년</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>당의 발해군왕 책봉 및 국호 발해 사용</t>
+        </is>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>고왕 | 698년</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>연표 : 발해</t>
+        </is>
+      </c>
+      <c r="D1177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>통일신라 공자 화상 국학에 안치</t>
+        </is>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>성덕왕 | 713년</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>발해 연호 인안 사용</t>
+        </is>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>무왕 | 717년</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>연표 : 발해</t>
+        </is>
+      </c>
+      <c r="D1179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>통일신라 정전 지급</t>
+        </is>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>성덕왕 | 720년</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>통일신라 상원사 동종 주조</t>
+        </is>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>성덕왕 | 722년</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>발해 나당 견제위해 일본에 사신 파견</t>
+        </is>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>무왕 | 725년</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>연표 : 발해</t>
+        </is>
+      </c>
+      <c r="D1182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>발해 장문휴 당 산둥반도 등주 공격</t>
+        </is>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>무왕 | 727년</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>연표 : 발해</t>
+        </is>
+      </c>
+      <c r="D1183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>발해 연호 대흥 사용</t>
+        </is>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>문왕 | 733년</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>연표 : 발해</t>
+        </is>
+      </c>
+      <c r="D1184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>통일신라 불국사 석굴암 건립</t>
+        </is>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>경덕왕 | 737년</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>발해 중경에서 상경 천도</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>문왕 | 751년</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>연표 : 발해</t>
+        </is>
+      </c>
+      <c r="D1186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>통일신라 녹읍 부활</t>
+        </is>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>경덕왕 | 755년</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>당의 발해국왕 책봉</t>
+        </is>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>문왕 | 757년</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>연표 : 발해</t>
+        </is>
+      </c>
+      <c r="D1188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>통일신라 대공의 난 발발</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>혜공왕 | 762년</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>통일신라 96각간의 난 발발</t>
+        </is>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>혜공왕 | 768년</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1190" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>통일신라 성덕대왕신종 완성</t>
+        </is>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>혜공왕 | 768년</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>통일신라 김지정의 난 발발</t>
+        </is>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>혜공왕 | 771년</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>발해 동경 천도</t>
+        </is>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>문왕 | 780년</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>연표 : 발해</t>
+        </is>
+      </c>
+      <c r="D1193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>발해 연호 건흥 사용</t>
+        </is>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>선왕 | 817년</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>연표 : 발해</t>
+        </is>
+      </c>
+      <c r="D1194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>통일신라 김헌창의 난</t>
+        </is>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>헌덕왕 | 818년</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1195" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>통일신라 김범문의 난</t>
+        </is>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>헌덕왕 | 822년</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1196" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>통일신라 장보고 청해진 설치</t>
+        </is>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>흥덕왕 | 825년</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>통일신라 사치 금지령 발표</t>
+        </is>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>흥덕왕 | 828년</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>통일신라 장보고의 난</t>
+        </is>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>문성왕 | 834년</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1199" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>통일신라 원종 애노의 난 발발</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>진성여왕 | 888년</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>통일신라 최치원 시무 10조 건의 좌절</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>진성여왕 | 892년</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>연표 : 통일신라</t>
+        </is>
+      </c>
+      <c r="D1201" t="n">
         <v>0</v>
       </c>
     </row>

--- a/학습자료/단답형/한국사.xlsx
+++ b/학습자료/단답형/한국사.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100">
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107">
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128">
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163">
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165">
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179">
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181">
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216">
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
@@ -5294,7 +5294,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247">
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257">
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
@@ -6054,7 +6054,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290">
@@ -6334,7 +6334,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
@@ -6534,7 +6534,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306">
@@ -6714,7 +6714,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315">
@@ -6820,7 +6820,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320">
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328">
@@ -7080,7 +7080,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
@@ -7340,7 +7340,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346">
@@ -7400,7 +7400,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349">
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383">
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
@@ -8441,7 +8441,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
@@ -8701,7 +8701,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
@@ -8861,7 +8861,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="430">
@@ -9041,7 +9041,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431">
@@ -9101,7 +9101,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
@@ -9201,7 +9201,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439">
@@ -9361,7 +9361,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
@@ -9381,7 +9381,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
@@ -9561,7 +9561,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="457">
@@ -9641,7 +9641,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="461">
@@ -9701,7 +9701,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
@@ -10161,7 +10161,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
@@ -10181,7 +10181,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="496">
@@ -10441,7 +10441,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="501">
@@ -10481,7 +10481,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
@@ -10641,7 +10641,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511">
@@ -10841,7 +10841,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="521">
@@ -10901,7 +10901,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524">
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
@@ -11261,7 +11261,7 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542">
@@ -11281,7 +11281,7 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="543">
@@ -11461,7 +11461,7 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552">
@@ -11481,7 +11481,7 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="562">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="570">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="575">
@@ -12041,7 +12041,7 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
@@ -12101,7 +12101,7 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584">
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="586">
@@ -12261,7 +12261,7 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="592">
@@ -12301,7 +12301,7 @@
         </is>
       </c>
       <c r="D593" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="594">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="595">
@@ -12361,7 +12361,7 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="597">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="610">
@@ -12681,7 +12681,7 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="613">
@@ -13202,7 +13202,7 @@
         </is>
       </c>
       <c r="D638" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="639">
@@ -13242,7 +13242,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="641">
@@ -13302,7 +13302,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="644">
@@ -13622,7 +13622,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="660">
@@ -13922,7 +13922,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="675">
@@ -13942,7 +13942,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="676">
@@ -14022,7 +14022,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="680">
@@ -14082,7 +14082,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="683">
@@ -14202,7 +14202,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="689">
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="694">
@@ -14342,7 +14342,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="696">
@@ -14582,7 +14582,7 @@
         </is>
       </c>
       <c r="D707" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="708">
@@ -14682,7 +14682,7 @@
         </is>
       </c>
       <c r="D712" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="713">
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="716">
@@ -15162,7 +15162,7 @@
         </is>
       </c>
       <c r="D736" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="742">
@@ -15322,7 +15322,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="745">
@@ -15362,7 +15362,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="747">
@@ -15402,7 +15402,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749">
@@ -15422,7 +15422,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="750">
@@ -15522,7 +15522,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="755">
@@ -15602,7 +15602,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="759">
@@ -15622,7 +15622,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="760">
@@ -15662,7 +15662,7 @@
         </is>
       </c>
       <c r="D761" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="762">
@@ -15762,7 +15762,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767">
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773">
@@ -15982,7 +15982,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="778">
@@ -16042,7 +16042,7 @@
         </is>
       </c>
       <c r="D780" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="781">
@@ -16122,7 +16122,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785">
@@ -16262,7 +16262,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="792">
@@ -16362,7 +16362,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="797">
@@ -16382,7 +16382,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="798">
@@ -16482,7 +16482,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="803">
@@ -16562,7 +16562,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="807">
@@ -16882,7 +16882,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="823">
@@ -17042,7 +17042,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="831">
@@ -17062,7 +17062,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="832">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="D833" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="834">
@@ -17362,7 +17362,7 @@
         </is>
       </c>
       <c r="D846" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="847">
@@ -17422,7 +17422,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="850">
@@ -17482,7 +17482,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="853">
@@ -17522,7 +17522,7 @@
         </is>
       </c>
       <c r="D854" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="855">
@@ -17822,7 +17822,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="870">
@@ -17842,7 +17842,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="871">
@@ -17882,7 +17882,7 @@
         </is>
       </c>
       <c r="D872" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="873">
@@ -18022,7 +18022,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="880">
@@ -18082,7 +18082,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="883">
@@ -18162,7 +18162,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="887">
@@ -18262,7 +18262,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="892">
@@ -18302,7 +18302,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="894">
@@ -18362,7 +18362,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="897">
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="899">
@@ -18462,7 +18462,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="902">
@@ -18482,7 +18482,7 @@
         </is>
       </c>
       <c r="D902" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="903">
@@ -18602,7 +18602,7 @@
         </is>
       </c>
       <c r="D908" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="909">
@@ -18742,7 +18742,7 @@
         </is>
       </c>
       <c r="D915" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="916">
@@ -18922,7 +18922,7 @@
         </is>
       </c>
       <c r="D924" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="925">
@@ -19022,7 +19022,7 @@
         </is>
       </c>
       <c r="D929" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="930">
@@ -19102,7 +19102,7 @@
         </is>
       </c>
       <c r="D933" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="934">
@@ -19122,7 +19122,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="935">
@@ -19342,7 +19342,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="946">
@@ -19382,7 +19382,7 @@
         </is>
       </c>
       <c r="D947" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="948">
@@ -19402,7 +19402,7 @@
         </is>
       </c>
       <c r="D948" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="949">
@@ -19442,7 +19442,7 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="951">
@@ -19542,7 +19542,7 @@
         </is>
       </c>
       <c r="D955" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="956">
@@ -19562,7 +19562,7 @@
         </is>
       </c>
       <c r="D956" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957">
@@ -19642,7 +19642,7 @@
         </is>
       </c>
       <c r="D960" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="961">
@@ -20162,7 +20162,7 @@
         </is>
       </c>
       <c r="D986" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="987">
@@ -20182,7 +20182,7 @@
         </is>
       </c>
       <c r="D987" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="988">
@@ -20202,7 +20202,7 @@
         </is>
       </c>
       <c r="D988" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="989">
@@ -20342,7 +20342,7 @@
         </is>
       </c>
       <c r="D995" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="996">
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="D999" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1000">
@@ -20522,7 +20522,7 @@
         </is>
       </c>
       <c r="D1004" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1005">
@@ -20562,7 +20562,7 @@
         </is>
       </c>
       <c r="D1006" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1007">
@@ -20667,7 +20667,7 @@
         </is>
       </c>
       <c r="D1011" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1012">
@@ -20970,7 +20970,7 @@
         </is>
       </c>
       <c r="D1026" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1027">
@@ -21030,7 +21030,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1030">
@@ -21210,7 +21210,7 @@
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1039">
@@ -21290,7 +21290,7 @@
         </is>
       </c>
       <c r="D1042" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1043">
@@ -21310,7 +21310,7 @@
         </is>
       </c>
       <c r="D1043" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1044">
@@ -21690,7 +21690,7 @@
         </is>
       </c>
       <c r="D1062" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1063">
@@ -22110,7 +22110,7 @@
         </is>
       </c>
       <c r="D1083" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1084">
@@ -22130,7 +22130,7 @@
         </is>
       </c>
       <c r="D1084" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1085">
@@ -22210,7 +22210,7 @@
         </is>
       </c>
       <c r="D1088" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1089">
@@ -22230,7 +22230,7 @@
         </is>
       </c>
       <c r="D1089" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1090">
@@ -22430,7 +22430,7 @@
         </is>
       </c>
       <c r="D1099" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1100">
@@ -22670,7 +22670,7 @@
         </is>
       </c>
       <c r="D1111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1112">
@@ -22730,7 +22730,7 @@
         </is>
       </c>
       <c r="D1114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1115">
@@ -22750,7 +22750,7 @@
         </is>
       </c>
       <c r="D1115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1116">
@@ -22890,7 +22890,7 @@
         </is>
       </c>
       <c r="D1122" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1123">
@@ -23010,7 +23010,7 @@
         </is>
       </c>
       <c r="D1128" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1129">
@@ -23110,7 +23110,7 @@
         </is>
       </c>
       <c r="D1133" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1134">
@@ -23190,7 +23190,7 @@
         </is>
       </c>
       <c r="D1137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1138">
@@ -23230,7 +23230,7 @@
         </is>
       </c>
       <c r="D1139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1140">
@@ -23350,7 +23350,7 @@
         </is>
       </c>
       <c r="D1145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1146">
@@ -23590,7 +23590,7 @@
         </is>
       </c>
       <c r="D1157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1158">
@@ -23610,7 +23610,7 @@
         </is>
       </c>
       <c r="D1158" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1159">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="D1160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1161">
@@ -23670,7 +23670,7 @@
         </is>
       </c>
       <c r="D1161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1162">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1169">
@@ -23830,7 +23830,7 @@
         </is>
       </c>
       <c r="D1169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1170">
@@ -24070,7 +24070,7 @@
         </is>
       </c>
       <c r="D1181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1182">
@@ -24230,7 +24230,7 @@
         </is>
       </c>
       <c r="D1189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1190">
@@ -24330,7 +24330,7 @@
         </is>
       </c>
       <c r="D1194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1195">
@@ -24390,7 +24390,7 @@
         </is>
       </c>
       <c r="D1197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1198">
@@ -24450,7 +24450,7 @@
         </is>
       </c>
       <c r="D1200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1201">
